--- a/scores-from-excel/bill-acme-scores.xlsx
+++ b/scores-from-excel/bill-acme-scores.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="34">
   <si>
     <t xml:space="preserve">Scorer</t>
   </si>
@@ -62,43 +62,46 @@
     <t xml:space="preserve">Must be able to hold 20 oz </t>
   </si>
   <si>
+    <t xml:space="preserve">billy acme none</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Meh</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Flexible</t>
+  </si>
+  <si>
+    <t xml:space="preserve">billy acme 5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Very Good</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gizmos to the wingnut</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Excellent</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Packaging</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pleasant apppearance</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Easy to open</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Recyclable</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Technical Support</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hold time less than 5 minutes</t>
+  </si>
+  <si>
     <t xml:space="preserve">john acme 5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Meh</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Flexible</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Very Good</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Gizmos to the wingnut</t>
-  </si>
-  <si>
-    <t xml:space="preserve">john acme 1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Excellent</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Packaging</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pleasant apppearance</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Easy to open</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Recyclable</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Technical Support</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hold time less than 5 minutes</t>
   </si>
   <si>
     <t xml:space="preserve">Resolution on first call</t>
@@ -215,7 +218,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="5">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -233,10 +236,6 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -260,7 +259,7 @@
   <dimension ref="A1:F14"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B17" activeCellId="0" sqref="B17"/>
+      <selection pane="topLeft" activeCell="C17" activeCellId="0" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -339,27 +338,29 @@
         <v>14</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="3" t="s">
         <v>15</v>
       </c>
       <c r="B7" s="3" t="n">
         <v>5</v>
       </c>
-      <c r="C7" s="5"/>
+      <c r="C7" s="3" t="s">
+        <v>16</v>
+      </c>
       <c r="E7" s="3" t="n">
         <v>4</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="3" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="E8" s="3" t="n">
         <v>5</v>
@@ -389,7 +390,7 @@
         <v>21</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -397,7 +398,7 @@
         <v>22</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -405,7 +406,7 @@
         <v>23</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
     </row>
   </sheetData>
@@ -492,7 +493,7 @@
         <v>25</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>13</v>
+        <v>26</v>
       </c>
       <c r="E6" s="3" t="n">
         <v>3</v>
@@ -503,24 +504,24 @@
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="C7" s="3" t="s">
         <v>26</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>13</v>
       </c>
       <c r="E7" s="3" t="n">
         <v>4</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="3" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E8" s="3" t="n">
         <v>5</v>
@@ -531,7 +532,7 @@
     </row>
     <row r="10" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -547,18 +548,18 @@
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="3" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="3" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>13</v>
+        <v>26</v>
       </c>
     </row>
   </sheetData>
